--- a/lesson1/1-7.xlsx
+++ b/lesson1/1-7.xlsx
@@ -5,26 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1215n\Github\statistics_lesson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1215n\Github\statistics_lesson\lesson1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEF82B6-A142-444E-9ED4-5C3E4CC32875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81050EED-503B-414A-BDDB-8BC666C1CA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$20</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -220,61 +210,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.814697265625E-6</c:v>
+                  <c:v>3.814697265625E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.866455078125E-5</c:v>
+                  <c:v>6.866455078125E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.83648681640625E-4</c:v>
+                  <c:v>5.83648681640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.11279296875E-3</c:v>
+                  <c:v>0.311279296875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.16729736328125E-2</c:v>
+                  <c:v>1.16729736328125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2684326171875E-2</c:v>
+                  <c:v>3.2684326171875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0816040039062514E-2</c:v>
+                  <c:v>7.0816040039062518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12139892578124999</c:v>
+                  <c:v>12.139892578124998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16692352294921875</c:v>
+                  <c:v>16.692352294921875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18547058105468747</c:v>
+                  <c:v>18.547058105468746</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16692352294921875</c:v>
+                  <c:v>16.692352294921875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12139892578124999</c:v>
+                  <c:v>12.139892578124998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0816040039062514E-2</c:v>
+                  <c:v>7.0816040039062518</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2684326171875E-2</c:v>
+                  <c:v>3.2684326171875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.16729736328125E-2</c:v>
+                  <c:v>1.16729736328125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.11279296875E-3</c:v>
+                  <c:v>0.311279296875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.83648681640625E-4</c:v>
+                  <c:v>5.83648681640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.866455078125E-5</c:v>
+                  <c:v>6.866455078125E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.814697265625E-6</c:v>
+                  <c:v>3.814697265625E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +1327,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1362,12 +1352,12 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>COMBIN($A$20,A2)*0.5^A2*0.5^($A$20-A2)</f>
-        <v>3.814697265625E-6</v>
+        <f>COMBIN($A$20,A2)*0.5^A2*0.5^($A$20-A2)*100</f>
+        <v>3.814697265625E-4</v>
       </c>
       <c r="C2">
         <f>SUM(B2:B10)</f>
-        <v>0.40726470947265625</v>
+        <v>40.726470947265625</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1375,8 +1365,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B20" si="0">COMBIN($A$20,A3)*0.5^A3*0.5^($A$20-A3)</f>
-        <v>6.866455078125E-5</v>
+        <f t="shared" ref="B3:B20" si="0">COMBIN($A$20,A3)*0.5^A3*0.5^($A$20-A3)*100</f>
+        <v>6.866455078125E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1385,7 +1375,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>5.83648681640625E-4</v>
+        <v>5.83648681640625E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1394,7 +1384,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>3.11279296875E-3</v>
+        <v>0.311279296875</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1403,7 +1393,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1.16729736328125E-2</v>
+        <v>1.16729736328125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1411,8 +1401,8 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>COMBIN($A$20,A7)*0.5^A7*0.5^($A$20-A7)</f>
-        <v>3.2684326171875E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2684326171875</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1421,7 +1411,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>7.0816040039062514E-2</v>
+        <v>7.0816040039062518</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1430,7 +1420,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.12139892578124999</v>
+        <v>12.139892578124998</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1439,7 +1429,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0.16692352294921875</v>
+        <v>16.692352294921875</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1448,7 +1438,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0.18547058105468747</v>
+        <v>18.547058105468746</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1457,7 +1447,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0.16692352294921875</v>
+        <v>16.692352294921875</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1466,7 +1456,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.12139892578124999</v>
+        <v>12.139892578124998</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1475,7 +1465,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>7.0816040039062514E-2</v>
+        <v>7.0816040039062518</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1484,7 +1474,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>3.2684326171875E-2</v>
+        <v>3.2684326171875</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1493,7 +1483,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1.16729736328125E-2</v>
+        <v>1.16729736328125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1502,7 +1492,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>3.11279296875E-3</v>
+        <v>0.311279296875</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1511,7 +1501,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>5.83648681640625E-4</v>
+        <v>5.83648681640625E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1520,7 +1510,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>6.866455078125E-5</v>
+        <v>6.866455078125E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1529,7 +1519,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>3.814697265625E-6</v>
+        <v>3.814697265625E-4</v>
       </c>
     </row>
   </sheetData>
